--- a/input/Mud19-1_DOC.xlsx
+++ b/input/Mud19-1_DOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/acidd_remins/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB1175-2C92-DC41-90D2-AEB1F75F53B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A8EFC-E9FF-1A4E-8FA3-A491BBF509F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="161">
   <si>
     <t>Date/Time</t>
   </si>
@@ -504,10 +504,37 @@
     <t>2019-03-19T17:00</t>
   </si>
   <si>
-    <t>doc</t>
+    <t>Experiment</t>
   </si>
   <si>
-    <t>sd_doc</t>
+    <t>MUD191</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Goleta Beach</t>
+  </si>
+  <si>
+    <t>Target_DOC_Amendment_uM</t>
+  </si>
+  <si>
+    <t>Inoculum_L</t>
+  </si>
+  <si>
+    <t>Media_L</t>
+  </si>
+  <si>
+    <t>Temperature_C</t>
+  </si>
+  <si>
+    <t>PTOC</t>
+  </si>
+  <si>
+    <t>PTOC_sd</t>
   </si>
 </sst>
 </file>
@@ -639,12 +666,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -961,576 +988,1102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="25"/>
-    <col min="5" max="5" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="6" width="10.83203125" style="24"/>
+    <col min="7" max="7" width="15.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="24"/>
+    <col min="12" max="12" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="H1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="L1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="24">
+        <f>combined!H4</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="25">
-        <f>combined!H4</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>3.5</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="27">
+      <c r="L2" s="26">
         <f>combined!I4</f>
         <v>139.75477091214799</v>
       </c>
-      <c r="F2" s="27">
+      <c r="M2" s="26">
         <f>combined!J4</f>
         <v>0.94667301306395824</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="25">
+      <c r="F3" s="24">
         <f>combined!H5</f>
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="G3" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.5</v>
+      </c>
+      <c r="J3">
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="27">
+      <c r="L3" s="26">
         <f>combined!I5</f>
         <v>138.1973938629676</v>
       </c>
-      <c r="F3" s="27">
+      <c r="M3" s="26">
         <f>combined!J5</f>
         <v>2.4149821761835688</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="25">
+      <c r="F4" s="24">
         <f>combined!H6</f>
         <v>11</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="G4" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.5</v>
+      </c>
+      <c r="J4">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="27">
+      <c r="L4" s="26">
         <f>combined!I6</f>
         <v>138.45695670449768</v>
       </c>
-      <c r="F4" s="27">
+      <c r="M4" s="26">
         <f>combined!J6</f>
         <v>1.5842283075764174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="25">
+      <c r="F5" s="24">
         <f>combined!H7</f>
         <v>15</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="G5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="27">
+      <c r="L5" s="26">
         <f>combined!I7</f>
         <v>138.68919714165614</v>
       </c>
-      <c r="F5" s="27">
+      <c r="M5" s="26">
         <f>combined!J7</f>
         <v>0.28979786114201778</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
+      <c r="J6">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="27">
+      <c r="L6" s="26">
         <f>combined!K4</f>
         <v>140.47881462799498</v>
       </c>
-      <c r="F6" s="27">
+      <c r="M6" s="26">
         <f>combined!L4</f>
         <v>0.92291506852757854</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="24">
+        <v>6</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="25">
-        <v>6</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="J7">
+        <v>3.5</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="27">
+      <c r="L7" s="26">
         <f>combined!K5</f>
         <v>136.54438839848677</v>
       </c>
-      <c r="F7" s="27">
+      <c r="M7" s="26">
         <f>combined!L5</f>
         <v>0.30911771855151915</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="24">
+        <v>11</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="25">
-        <v>11</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="J8">
+        <v>3.5</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="27">
+      <c r="L8" s="26">
         <f>combined!K6</f>
         <v>136.33947036569987</v>
       </c>
-      <c r="F8" s="27">
+      <c r="M8" s="26">
         <f>combined!L6</f>
         <v>0.13523900186626825</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="24">
+        <v>15</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="25">
-        <v>15</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="J9">
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="27">
+      <c r="L9" s="26">
         <f>combined!K7</f>
         <v>136.98154686843213</v>
       </c>
-      <c r="F9" s="27">
+      <c r="M9" s="26">
         <f>combined!L7</f>
         <v>1.0046325852923619</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1.5</v>
+      </c>
+      <c r="J10">
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="27">
+      <c r="L10" s="26">
         <f>combined!M4</f>
         <v>150.85805588403505</v>
       </c>
-      <c r="F10" s="27">
+      <c r="M10" s="26">
         <f>combined!N4</f>
         <v>0.69601755241716734</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="24">
+        <v>6</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="25">
-        <v>6</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="27">
+      <c r="L11" s="26">
         <f>combined!M5</f>
         <v>145.82095538629025</v>
       </c>
-      <c r="F11" s="27">
+      <c r="M11" s="26">
         <f>combined!N5</f>
         <v>0.44423481292462808</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="24">
+        <v>11</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="25">
-        <v>11</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="27">
+      <c r="L12" s="26">
         <f>combined!M6</f>
         <v>143.62468001165593</v>
       </c>
-      <c r="F12" s="27">
+      <c r="M12" s="26">
         <f>combined!N6</f>
         <v>0.85569820522365037</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="24">
+        <v>15</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="25">
-        <v>15</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.5</v>
+      </c>
+      <c r="J13">
+        <v>3.5</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="27">
+      <c r="L13" s="26">
         <f>combined!M7</f>
         <v>143.65815196929981</v>
       </c>
-      <c r="F13" s="27">
+      <c r="M13" s="26">
         <f>combined!N7</f>
         <v>0.70640617792933347</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.5</v>
+      </c>
+      <c r="J14">
+        <v>3.5</v>
+      </c>
+      <c r="K14" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="27">
+      <c r="L14" s="26">
         <f>combined!O4</f>
         <v>148.84373063813166</v>
       </c>
-      <c r="F14" s="27">
+      <c r="M14" s="26">
         <f>combined!P4</f>
         <v>1.1450155370283135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="24">
+        <v>6</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="25">
-        <v>6</v>
-      </c>
-      <c r="D15" s="26" t="s">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1.5</v>
+      </c>
+      <c r="J15">
+        <v>3.5</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="27">
+      <c r="L15" s="26">
         <f>combined!O5</f>
         <v>144.5541705277673</v>
       </c>
-      <c r="F15" s="27">
+      <c r="M15" s="26">
         <f>combined!P5</f>
         <v>0.40053958542383378</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="24">
+        <v>11</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="25">
-        <v>11</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+      <c r="J16">
+        <v>3.5</v>
+      </c>
+      <c r="K16" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="27">
+      <c r="L16" s="26">
         <f>combined!O6</f>
         <v>143.04020813587397</v>
       </c>
-      <c r="F16" s="27">
+      <c r="M16" s="26">
         <f>combined!P6</f>
         <v>1.5438980383609895</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="24">
+        <v>15</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="25">
-        <v>15</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1.5</v>
+      </c>
+      <c r="J17">
+        <v>3.5</v>
+      </c>
+      <c r="K17" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="27">
+      <c r="L17" s="26">
         <f>combined!O7</f>
         <v>144.89918916809671</v>
       </c>
-      <c r="F17" s="27">
+      <c r="M17" s="26">
         <f>combined!P7</f>
         <v>1.0049902325180073</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="26" t="s">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1.5</v>
+      </c>
+      <c r="J18">
+        <v>3.5</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="27">
+      <c r="L18" s="26">
         <f>combined!Q4</f>
         <v>145.18694768549125</v>
       </c>
-      <c r="F18" s="27">
+      <c r="M18" s="26">
         <f>combined!R4</f>
         <v>0.8451707132696612</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="24">
+        <v>6</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="25">
-        <v>6</v>
-      </c>
-      <c r="D19" s="26" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1.5</v>
+      </c>
+      <c r="J19">
+        <v>3.5</v>
+      </c>
+      <c r="K19" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="27">
+      <c r="L19" s="26">
         <f>combined!Q5</f>
         <v>144.20750516843066</v>
       </c>
-      <c r="F19" s="27">
+      <c r="M19" s="26">
         <f>combined!R5</f>
         <v>0.44606232089231396</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="24">
+        <v>11</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="25">
-        <v>11</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1.5</v>
+      </c>
+      <c r="J20">
+        <v>3.5</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="27">
+      <c r="L20" s="26">
         <f>combined!Q6</f>
         <v>143.2446633719982</v>
       </c>
-      <c r="F20" s="27">
+      <c r="M20" s="26">
         <f>combined!R6</f>
         <v>0.82169374901216785</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="24">
+        <v>15</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="25">
-        <v>15</v>
-      </c>
-      <c r="D21" s="26" t="s">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+      <c r="J21">
+        <v>3.5</v>
+      </c>
+      <c r="K21" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="27">
+      <c r="L21" s="26">
         <f>combined!Q7</f>
         <v>142.0494114867717</v>
       </c>
-      <c r="F21" s="27">
+      <c r="M21" s="26">
         <f>combined!R7</f>
         <v>1.1034173201020683</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1.5</v>
+      </c>
+      <c r="J22">
+        <v>3.5</v>
+      </c>
+      <c r="K22" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="27">
+      <c r="L22" s="26">
         <f>combined!S4</f>
         <v>146.89128833664756</v>
       </c>
-      <c r="F22" s="27">
+      <c r="M22" s="26">
         <f>combined!T4</f>
         <v>1.1290117431461961</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="24">
+        <v>6</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="25">
-        <v>6</v>
-      </c>
-      <c r="D23" s="26" t="s">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1.5</v>
+      </c>
+      <c r="J23">
+        <v>3.5</v>
+      </c>
+      <c r="K23" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="27">
+      <c r="L23" s="26">
         <f>combined!S5</f>
         <v>144.10790084466177</v>
       </c>
-      <c r="F23" s="27">
+      <c r="M23" s="26">
         <f>combined!T5</f>
         <v>0.49301624940730071</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="24">
+        <v>11</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="25">
-        <v>11</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1.5</v>
+      </c>
+      <c r="J24">
+        <v>3.5</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="27">
+      <c r="L24" s="26">
         <f>combined!S6</f>
         <v>143.01225328320416</v>
       </c>
-      <c r="F24" s="27">
+      <c r="M24" s="26">
         <f>combined!T6</f>
         <v>0.16433874980243357</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="24">
+        <v>15</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="25">
-        <v>15</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1.5</v>
+      </c>
+      <c r="J25">
+        <v>3.5</v>
+      </c>
+      <c r="K25" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="27">
+      <c r="L25" s="26">
         <f>combined!S7</f>
         <v>142.92924968006341</v>
       </c>
-      <c r="F25" s="27">
+      <c r="M25" s="26">
         <f>combined!T7</f>
         <v>0.32867749960486714</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,24 +2121,24 @@
         <v>7</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1600,30 +2153,30 @@
         <v>139.08537200504415</v>
       </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24" t="s">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="T2" s="24"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
